--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91758\Documents\LinkedIn_Apollo_Email_Extraction-main\LinkedIn_Apollo_Email_Extraction-main\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5048CFB5-EE29-4186-BA0D-0EB8F7F7F53A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F2065A4-3CDD-4676-A24B-222EDEF365B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="3110" windowWidth="14400" windowHeight="8170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -520,7 +520,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B7" sqref="B7:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15" customHeight="1"/>
